--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Indicators" sheetId="1" r:id="rId1"/>
+    <sheet name="Points" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Name</t>
   </si>
@@ -207,6 +207,235 @@
   </si>
   <si>
     <t>Chande Momentum Oscillator. One variation of RSI</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
+  <si>
+    <t>Principal: Compute and merge each</t>
+  </si>
+  <si>
+    <t>Average Window:1week for 2hours(12*7)</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RGBR cluster based color representation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DX </t>
+  </si>
+  <si>
+    <t>Directional Movement Index</t>
+  </si>
+  <si>
+    <t>The DX is usually smoothed with a moving average (i.e. the ADX). The values range from 0 to 100, but rarely get above 60. To interpret the DX, consider a high number to be a strong trend, and a low number, a weak trend.</t>
+  </si>
+  <si>
+    <t>MACD</t>
+  </si>
+  <si>
+    <t>Moving Average Convergence/Divergence</t>
+  </si>
+  <si>
+    <t>The biggest disadvantage of using this indicator to generate transaction signals is that a trader can get whipsawed in and out of a position several times before being able to capture a strong change in momentum</t>
+  </si>
+  <si>
+    <t>Absolute Price Difference, so will not use it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACDEXT </t>
+  </si>
+  <si>
+    <t>MACD with controllable MA type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACDFIX </t>
+  </si>
+  <si>
+    <t>Moving Average Convergence/Divergence Fix 12/26</t>
+  </si>
+  <si>
+    <t>Data Clean</t>
+  </si>
+  <si>
+    <t>Data Clean:volume price use ffill when it is 0</t>
+  </si>
+  <si>
+    <t>MFI</t>
+  </si>
+  <si>
+    <t>Money Flow Index</t>
+  </si>
+  <si>
+    <t>PriceVolume</t>
+  </si>
+  <si>
+    <t>Values above 80/below 20 indicate market tops/bottoms</t>
+  </si>
+  <si>
+    <t>Money Flow Strength</t>
+  </si>
+  <si>
+    <t>Money Flow Strength Based on Both Price and Volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINUS_DI </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minus Directional Indicator</t>
+  </si>
+  <si>
+    <t>Minus Directional Indicator</t>
+  </si>
+  <si>
+    <t>MINUS_DM</t>
+  </si>
+  <si>
+    <t>Minus Directional Movement</t>
+  </si>
+  <si>
+    <t>Minus Directional Indicator ups/downs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOM </t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>Absolute Price change</t>
+  </si>
+  <si>
+    <t>PLUS_DI</t>
+  </si>
+  <si>
+    <t>Plus Directional Indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUS_DM </t>
+  </si>
+  <si>
+    <t>Plus Directional Movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPO </t>
+  </si>
+  <si>
+    <t>Percentage Price Oscillator</t>
+  </si>
+  <si>
+    <t>The Price Oscillator Percent shows the percentage difference between two moving averages. A buy signal is generate when the Price Oscillator Percent rises above zero, and a sell signal when the it falls below zero</t>
+  </si>
+  <si>
+    <t>Period Position</t>
+  </si>
+  <si>
+    <t>Periods Position</t>
+  </si>
+  <si>
+    <t>How much percentage is on greater period cycle</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>Rate of change : ((price/prevPrice)-1)*100</t>
+  </si>
+  <si>
+    <t>Useless since it only focus on one price, which could be totally wrong</t>
+  </si>
+  <si>
+    <t>ROCP</t>
+  </si>
+  <si>
+    <t>Rate of change Percentage: (price-prevPrice)/prevPrice</t>
+  </si>
+  <si>
+    <t>ROCR</t>
+  </si>
+  <si>
+    <t>Rate of change ratio: (price/prevPrice)</t>
+  </si>
+  <si>
+    <t>ROCR100</t>
+  </si>
+  <si>
+    <t>Rate of change ratio 100 scale: (price/prevPrice)*100</t>
+  </si>
+  <si>
+    <t>RSI</t>
+  </si>
+  <si>
+    <t>Relative Strength Index</t>
+  </si>
+  <si>
+    <t>(0,100</t>
+  </si>
+  <si>
+    <t>The RSI is interpreted as an overbought/oversold indicator when the value is over 70/below 30.</t>
+  </si>
+  <si>
+    <t>STOCH</t>
+  </si>
+  <si>
+    <t>Percentage Price Oscillator(Good to have multiple indicators even for one single period)</t>
+  </si>
+  <si>
+    <t>Stochastic</t>
+  </si>
+  <si>
+    <t>STOCHF</t>
+  </si>
+  <si>
+    <t>Stochastic Fast</t>
+  </si>
+  <si>
+    <t>STOCHRSI</t>
+  </si>
+  <si>
+    <t>Stochastic Relative Strength Index</t>
+  </si>
+  <si>
+    <t>(0, 1)</t>
+  </si>
+  <si>
+    <t>Stochastic RSI (StochRSI) is an indicator of an indicator. It calculates the RSI relative to its range in order to increase the sensitivity of the standard RSI.</t>
+  </si>
+  <si>
+    <t>Trend Point, Buy/Sell signal</t>
+  </si>
+  <si>
+    <t>Overbought/oversold conditions are indicated when the StochRSI crosses above .20 / below .80. A buy signal is generated when the StochRSI moves from oversold to above the midpoint (.50). A sell signal is generated when the StochRSI moves from overbought to below the midpoint.</t>
+  </si>
+  <si>
+    <t>TRIX</t>
+  </si>
+  <si>
+    <t>Triple Smooth EMA</t>
+  </si>
+  <si>
+    <t>ULTOSC</t>
+  </si>
+  <si>
+    <t>Ultimate Oscillator</t>
+  </si>
+  <si>
+    <t>weighted sum of three oscillators of different time periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Values over 70 indicate overbought conditions, and values under 30 indicate oversold conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLR </t>
+  </si>
+  <si>
+    <t>Williams' %R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alues below 20 indicate an overbought condition and a sell signal is generated when it crosses the 20 line. Values over 80 indicate an oversold condition and a buy signal is generated when it crosses the 80 line.
+</t>
   </si>
 </sst>
 </file>
@@ -214,7 +443,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -343,7 +572,23 @@
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <color/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <name val="&amp;quot"/>
+      <color rgb="FF222222"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Verdana"/>
+      <color rgb="FF00007E"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -560,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -661,6 +906,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -713,7 +973,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,12 +1028,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -783,7 +1037,64 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1104,16 +1415,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="1" width="10.50500011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="3" style="1" width="17.37999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="1" width="10.38000011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="1" width="26.87999916" customWidth="1" outlineLevel="0"/>
@@ -1122,161 +1433,224 @@
     <col min="9" max="9" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="33.000000">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="49.500000">
+      <c r="A2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="10">
+        <v>24</v>
+      </c>
+      <c r="I2" s="10">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="49.500000">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="10" customFormat="1" ht="49.500000">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="10">
-        <v>14</v>
-      </c>
-      <c r="I4" s="10">
-        <v>14</v>
-      </c>
-      <c r="J4" s="10">
-        <v>14</v>
-      </c>
-      <c r="K4" s="10">
-        <v>14</v>
-      </c>
-      <c r="L4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+    </row>
+    <row r="4" spans="1:12" s="16" customFormat="1" ht="33.000000">
+      <c r="A4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" s="0" customFormat="1" ht="99.000000">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" ht="49.500000">
+      <c r="A6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10">
+        <v>24</v>
+      </c>
+      <c r="I6" s="10">
+        <v>14</v>
+      </c>
+      <c r="J6" s="10">
+        <v>14</v>
+      </c>
+      <c r="K6" s="10">
+        <v>14</v>
+      </c>
+      <c r="L6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="49.500000">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="33.000000">
-      <c r="A6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:12" s="18" customFormat="1" ht="99.000000">
-      <c r="A7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="10" customFormat="1" ht="49.500000">
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="66.000000">
       <c r="A8" s="11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="10">
         <v>24</v>
       </c>
@@ -1293,71 +1667,541 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="G9" s="1" t="s">
+    <row r="9" spans="1:12" s="27" customFormat="1" ht="66.000000">
+      <c r="A9" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="27">
+        <v>24</v>
+      </c>
+      <c r="I9" s="27">
+        <v>14</v>
+      </c>
+      <c r="J9" s="27">
+        <v>14</v>
+      </c>
+      <c r="K9" s="27">
+        <v>14</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="27" customFormat="1" ht="82.500000">
+      <c r="A10" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="27">
+        <v>24</v>
+      </c>
+      <c r="I10" s="27">
+        <v>14</v>
+      </c>
+      <c r="J10" s="27">
+        <v>14</v>
+      </c>
+      <c r="K10" s="27">
+        <v>14</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="115.500000">
+      <c r="A11" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.500000">
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+    </row>
+    <row r="14" spans="1:12" s="27" customFormat="1" ht="66.000000">
+      <c r="A14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="27">
+        <v>24</v>
+      </c>
+      <c r="I14" s="27">
+        <v>14</v>
+      </c>
+      <c r="J14" s="27">
+        <v>14</v>
+      </c>
+      <c r="K14" s="27">
+        <v>14</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="34" customFormat="1" ht="49.500000">
+      <c r="A15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="34">
+        <v>24</v>
+      </c>
+      <c r="I15" s="34">
+        <v>14</v>
+      </c>
+      <c r="J15" s="34">
+        <v>14</v>
+      </c>
+      <c r="K15" s="34">
+        <v>14</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="33.000000">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="33.000000">
+      <c r="A17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="66.000000">
-      <c r="A10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="11" t="s">
+    <row r="18" spans="1:12" ht="33.000000">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="33.000000">
+      <c r="A19" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="27" customFormat="1" ht="82.500000">
+      <c r="A20" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="E20" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="27">
+        <v>24</v>
+      </c>
+      <c r="I20" s="27">
+        <v>14</v>
+      </c>
+      <c r="J20" s="27">
+        <v>14</v>
+      </c>
+      <c r="K20" s="27">
+        <v>14</v>
+      </c>
+      <c r="L20" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="49.500000">
+      <c r="A21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="66.000000">
+      <c r="A22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="49.500000">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="66.000000">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="27" customFormat="1" ht="33.000000">
+      <c r="A25" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="27">
+        <v>24</v>
+      </c>
+      <c r="I25" s="27">
+        <v>14</v>
+      </c>
+      <c r="J25" s="27">
+        <v>14</v>
+      </c>
+      <c r="K25" s="27">
+        <v>14</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="27" customFormat="1" ht="33.000000">
+      <c r="A26" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="27">
+        <v>24</v>
+      </c>
+      <c r="I26" s="27">
+        <v>14</v>
+      </c>
+      <c r="J26" s="27">
+        <v>14</v>
+      </c>
+      <c r="K26" s="27">
+        <v>14</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="27" customFormat="1" ht="33.000000">
+      <c r="A27" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="27">
+        <v>24</v>
+      </c>
+      <c r="I27" s="27">
+        <v>14</v>
+      </c>
+      <c r="J27" s="27">
+        <v>14</v>
+      </c>
+      <c r="K27" s="27">
+        <v>14</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1" ht="56.250000">
+      <c r="A28" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="27">
+        <v>24</v>
+      </c>
+      <c r="I28" s="27">
+        <v>14</v>
+      </c>
+      <c r="J28" s="27">
+        <v>14</v>
+      </c>
+      <c r="K28" s="27">
+        <v>14</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="27" customFormat="1" ht="33.000000">
+      <c r="A29" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="27">
         <v>48</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="I29" s="27">
+        <v>28</v>
+      </c>
+      <c r="J29" s="27">
+        <v>28</v>
+      </c>
+      <c r="K29" s="27">
+        <v>28</v>
+      </c>
+      <c r="L29" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="27" customFormat="1" ht="66.000000">
+      <c r="A30" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" s="27">
+        <v>12</v>
+      </c>
+      <c r="I30" s="27">
+        <v>7</v>
+      </c>
+      <c r="J30" s="27">
+        <v>7</v>
+      </c>
+      <c r="K30" s="27">
+        <v>7</v>
+      </c>
+      <c r="L30" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="27" customFormat="1" ht="82.500000">
+      <c r="A31" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="27">
         <v>24</v>
       </c>
-      <c r="I10" s="10">
-        <v>14</v>
-      </c>
-      <c r="J10" s="10">
-        <v>14</v>
-      </c>
-      <c r="K10" s="10">
-        <v>14</v>
-      </c>
-      <c r="L10" s="10" t="s">
+      <c r="I31" s="27">
+        <v>14</v>
+      </c>
+      <c r="J31" s="27">
+        <v>14</v>
+      </c>
+      <c r="K31" s="27">
+        <v>14</v>
+      </c>
+      <c r="L31" s="27" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="66.000000">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1369,14 +2213,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" s="26" customFormat="1">
+      <c r="A3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:L3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Indicators" sheetId="1" r:id="rId1"/>
-    <sheet name="Points" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TrendInd" sheetId="1" r:id="rId1"/>
+    <sheet name="PatternInd" sheetId="4" r:id="rId2"/>
+    <sheet name="CycleInd" sheetId="5" r:id="rId3"/>
+    <sheet name="VolumeInd" sheetId="3" r:id="rId4"/>
+    <sheet name="OverlapInd" sheetId="6" r:id="rId5"/>
+    <sheet name="Points" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -443,7 +446,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -589,11 +592,6 @@
       <sz val="9.0"/>
       <name val="Verdana"/>
       <color rgb="FF00007E"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="35">
@@ -973,7 +971,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1055,18 +1053,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1075,18 +1061,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1417,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
@@ -1545,11 +1519,6 @@
         <v>29</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" s="0" customFormat="1" ht="99.000000">
       <c r="A5" s="1" t="s">
@@ -1571,11 +1540,6 @@
       <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="0"/>
-      <c r="K5" s="0"/>
-      <c r="L5" s="0"/>
     </row>
     <row r="6" spans="1:12" s="10" customFormat="1" ht="49.500000">
       <c r="A6" s="11" t="s">
@@ -1667,80 +1631,80 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="27" customFormat="1" ht="66.000000">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="10">
         <v>24</v>
       </c>
-      <c r="I9" s="27">
-        <v>14</v>
-      </c>
-      <c r="J9" s="27">
-        <v>14</v>
-      </c>
-      <c r="K9" s="27">
-        <v>14</v>
-      </c>
-      <c r="L9" s="27" t="s">
+      <c r="I9" s="10">
+        <v>14</v>
+      </c>
+      <c r="J9" s="10">
+        <v>14</v>
+      </c>
+      <c r="K9" s="10">
+        <v>14</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="27" customFormat="1" ht="82.500000">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:12" s="10" customFormat="1" ht="82.500000">
+      <c r="A10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="10">
         <v>24</v>
       </c>
-      <c r="I10" s="27">
-        <v>14</v>
-      </c>
-      <c r="J10" s="27">
-        <v>14</v>
-      </c>
-      <c r="K10" s="27">
-        <v>14</v>
-      </c>
-      <c r="L10" s="27" t="s">
+      <c r="I10" s="10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="10">
+        <v>14</v>
+      </c>
+      <c r="K10" s="10">
+        <v>14</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="115.500000">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1779,7 +1743,7 @@
       <c r="K12" s="0"/>
       <c r="L12" s="0"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" ht="49.500000">
       <c r="A13" s="1" t="s">
         <v>76</v>
       </c>
@@ -1797,71 +1761,71 @@
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
     </row>
-    <row r="14" spans="1:12" s="27" customFormat="1" ht="66.000000">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="33" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="10">
         <v>24</v>
       </c>
-      <c r="I14" s="27">
-        <v>14</v>
-      </c>
-      <c r="J14" s="27">
-        <v>14</v>
-      </c>
-      <c r="K14" s="27">
-        <v>14</v>
-      </c>
-      <c r="L14" s="27" t="s">
+      <c r="I14" s="10">
+        <v>14</v>
+      </c>
+      <c r="J14" s="10">
+        <v>14</v>
+      </c>
+      <c r="K14" s="10">
+        <v>14</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="34" customFormat="1" ht="49.500000">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:12" s="0" customFormat="1" ht="49.500000">
+      <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="34">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="0">
         <v>24</v>
       </c>
-      <c r="I15" s="34">
-        <v>14</v>
-      </c>
-      <c r="J15" s="34">
-        <v>14</v>
-      </c>
-      <c r="K15" s="34">
-        <v>14</v>
-      </c>
-      <c r="L15" s="34" t="s">
+      <c r="I15" s="0">
+        <v>14</v>
+      </c>
+      <c r="J15" s="0">
+        <v>14</v>
+      </c>
+      <c r="K15" s="0">
+        <v>14</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1903,39 +1867,39 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="27" customFormat="1" ht="82.500000">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="82.500000">
+      <c r="A20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28" t="s">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="10">
         <v>24</v>
       </c>
-      <c r="I20" s="27">
-        <v>14</v>
-      </c>
-      <c r="J20" s="27">
-        <v>14</v>
-      </c>
-      <c r="K20" s="27">
-        <v>14</v>
-      </c>
-      <c r="L20" s="27" t="s">
+      <c r="I20" s="10">
+        <v>14</v>
+      </c>
+      <c r="J20" s="10">
+        <v>14</v>
+      </c>
+      <c r="K20" s="10">
+        <v>14</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1974,233 +1938,233 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="27" customFormat="1" ht="33.000000">
-      <c r="A25" s="28" t="s">
+    <row r="25" spans="1:12" s="10" customFormat="1" ht="33.000000">
+      <c r="A25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="10">
         <v>24</v>
       </c>
-      <c r="I25" s="27">
-        <v>14</v>
-      </c>
-      <c r="J25" s="27">
-        <v>14</v>
-      </c>
-      <c r="K25" s="27">
-        <v>14</v>
-      </c>
-      <c r="L25" s="27" t="s">
+      <c r="I25" s="10">
+        <v>14</v>
+      </c>
+      <c r="J25" s="10">
+        <v>14</v>
+      </c>
+      <c r="K25" s="10">
+        <v>14</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="27" customFormat="1" ht="33.000000">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="33.000000">
+      <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10">
         <v>24</v>
       </c>
-      <c r="I26" s="27">
-        <v>14</v>
-      </c>
-      <c r="J26" s="27">
-        <v>14</v>
-      </c>
-      <c r="K26" s="27">
-        <v>14</v>
-      </c>
-      <c r="L26" s="27" t="s">
+      <c r="I26" s="10">
+        <v>14</v>
+      </c>
+      <c r="J26" s="10">
+        <v>14</v>
+      </c>
+      <c r="K26" s="10">
+        <v>14</v>
+      </c>
+      <c r="L26" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="27" customFormat="1" ht="33.000000">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:12" s="10" customFormat="1" ht="33.000000">
+      <c r="A27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="27">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="10">
         <v>24</v>
       </c>
-      <c r="I27" s="27">
-        <v>14</v>
-      </c>
-      <c r="J27" s="27">
-        <v>14</v>
-      </c>
-      <c r="K27" s="27">
-        <v>14</v>
-      </c>
-      <c r="L27" s="27" t="s">
+      <c r="I27" s="10">
+        <v>14</v>
+      </c>
+      <c r="J27" s="10">
+        <v>14</v>
+      </c>
+      <c r="K27" s="10">
+        <v>14</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="27" customFormat="1" ht="56.250000">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="56.250000">
+      <c r="A28" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="40" t="s">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="10">
         <v>24</v>
       </c>
-      <c r="I28" s="27">
-        <v>14</v>
-      </c>
-      <c r="J28" s="27">
-        <v>14</v>
-      </c>
-      <c r="K28" s="27">
-        <v>14</v>
-      </c>
-      <c r="L28" s="27" t="s">
+      <c r="I28" s="10">
+        <v>14</v>
+      </c>
+      <c r="J28" s="10">
+        <v>14</v>
+      </c>
+      <c r="K28" s="10">
+        <v>14</v>
+      </c>
+      <c r="L28" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="27" customFormat="1" ht="33.000000">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="33.000000">
+      <c r="A29" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="27">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="10">
         <v>48</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I29" s="10">
         <v>28</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="10">
         <v>28</v>
       </c>
-      <c r="K29" s="27">
+      <c r="K29" s="10">
         <v>28</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="27" customFormat="1" ht="66.000000">
-      <c r="A30" s="28" t="s">
+    <row r="30" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28" t="s">
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="10">
         <v>12</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="10">
         <v>7</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="10">
         <v>7</v>
       </c>
-      <c r="K30" s="27">
+      <c r="K30" s="10">
         <v>7</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="27" customFormat="1" ht="82.500000">
-      <c r="A31" s="28" t="s">
+    <row r="31" spans="1:12" s="10" customFormat="1" ht="82.500000">
+      <c r="A31" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28" t="s">
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="27">
+      <c r="H31" s="10">
         <v>24</v>
       </c>
-      <c r="I31" s="27">
-        <v>14</v>
-      </c>
-      <c r="J31" s="27">
-        <v>14</v>
-      </c>
-      <c r="K31" s="27">
-        <v>14</v>
-      </c>
-      <c r="L31" s="27" t="s">
+      <c r="I31" s="10">
+        <v>14</v>
+      </c>
+      <c r="J31" s="10">
+        <v>14</v>
+      </c>
+      <c r="K31" s="10">
+        <v>14</v>
+      </c>
+      <c r="L31" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2213,63 +2177,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:12" s="26" customFormat="1">
-      <c r="A3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:L3"/>
-  </mergeCells>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2290,4 +2205,96 @@
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" s="26" customFormat="1">
+      <c r="A3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
 </file>
--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TrendInd" sheetId="1" r:id="rId1"/>
     <sheet name="PatternInd" sheetId="4" r:id="rId2"/>
     <sheet name="CycleInd" sheetId="5" r:id="rId3"/>
-    <sheet name="VolumeInd" sheetId="3" r:id="rId4"/>
-    <sheet name="OverlapInd" sheetId="6" r:id="rId5"/>
-    <sheet name="Points" sheetId="2" r:id="rId6"/>
+    <sheet name="Points" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -20,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>Name</t>
   </si>
@@ -439,6 +437,318 @@
   <si>
     <t xml:space="preserve">alues below 20 indicate an overbought condition and a sell signal is generated when it crosses the 20 line. Values over 80 indicate an oversold condition and a buy signal is generated when it crosses the 80 line.
 </t>
+  </si>
+  <si>
+    <t>CDL2CROWS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDL3BLACKCROWS </t>
+  </si>
+  <si>
+    <t>CDL3INSIDE</t>
+  </si>
+  <si>
+    <t>CDL3LINESTRIKE</t>
+  </si>
+  <si>
+    <t>CDL3OUTSIDE</t>
+  </si>
+  <si>
+    <t>CDL3STARSINSOUTH</t>
+  </si>
+  <si>
+    <t>CDL3WHITESOLDIERS</t>
+  </si>
+  <si>
+    <t>CDLABANDONEDBABY</t>
+  </si>
+  <si>
+    <t>CDLADVANCEBLOCK</t>
+  </si>
+  <si>
+    <t>CDLBELTHOLD</t>
+  </si>
+  <si>
+    <t>CDLBREAKAWAY</t>
+  </si>
+  <si>
+    <t>CDLCLOSINGMARUBOZU</t>
+  </si>
+  <si>
+    <t>CDLCONCEALBABYSWALL</t>
+  </si>
+  <si>
+    <t>CDLCOUNTERATTACK</t>
+  </si>
+  <si>
+    <t>CDLDARKCLOUDCOVER</t>
+  </si>
+  <si>
+    <t>CDLDOJI</t>
+  </si>
+  <si>
+    <t>CDLDOJISTAR</t>
+  </si>
+  <si>
+    <t>CDLDRAGONFLYDOJI</t>
+  </si>
+  <si>
+    <t>CDLENGULFING</t>
+  </si>
+  <si>
+    <t>CDLEVENINGDOJISTAR</t>
+  </si>
+  <si>
+    <t>CDLEVENINGSTAR</t>
+  </si>
+  <si>
+    <t>CDLGAPSIDESIDEWHITE</t>
+  </si>
+  <si>
+    <t>CDLGRAVESTONEDOJI</t>
+  </si>
+  <si>
+    <t>CDLHAMMER</t>
+  </si>
+  <si>
+    <t>CDLHANGINGMAN</t>
+  </si>
+  <si>
+    <t>CDLHARAMI</t>
+  </si>
+  <si>
+    <t>CDLHARAMICROSS</t>
+  </si>
+  <si>
+    <t>CDLHIGHWAVE</t>
+  </si>
+  <si>
+    <t>CDLHIKKAKE</t>
+  </si>
+  <si>
+    <t>CDLHIKKAKEMOD</t>
+  </si>
+  <si>
+    <t>CDLHOMINGPIGEON</t>
+  </si>
+  <si>
+    <t>CDLIDENTICAL3CROWS</t>
+  </si>
+  <si>
+    <t>CDLINNECK</t>
+  </si>
+  <si>
+    <t>CDLINVERTEDHAMMER</t>
+  </si>
+  <si>
+    <t>CDLKICKING</t>
+  </si>
+  <si>
+    <t>CDLKICKINGBYLENGTH</t>
+  </si>
+  <si>
+    <t>CDLLADDERBOTTOM</t>
+  </si>
+  <si>
+    <t>CDLLONGLEGGEDDOJI</t>
+  </si>
+  <si>
+    <t>CDLLONGLINE</t>
+  </si>
+  <si>
+    <t>CDLMARUBOZU</t>
+  </si>
+  <si>
+    <t>CDLMATCHINGLOW</t>
+  </si>
+  <si>
+    <t>CDLMATHOLD</t>
+  </si>
+  <si>
+    <t>CDLMORNINGDOJISTAR</t>
+  </si>
+  <si>
+    <t>CDLMORNINGSTAR</t>
+  </si>
+  <si>
+    <t>CDLONNECK</t>
+  </si>
+  <si>
+    <t>CDLPIERCING</t>
+  </si>
+  <si>
+    <t>CDLRICKSHAWMAN</t>
+  </si>
+  <si>
+    <t>CDLRISEFALL3METHODS</t>
+  </si>
+  <si>
+    <t>CDLSEPARATINGLINES</t>
+  </si>
+  <si>
+    <t>CDLSHOOTINGSTAR</t>
+  </si>
+  <si>
+    <t>CDLSHORTLINE</t>
+  </si>
+  <si>
+    <t>CDLSPINNINGTOP</t>
+  </si>
+  <si>
+    <t>CDLSTALLEDPATTERN</t>
+  </si>
+  <si>
+    <t>CDLSTICKSANDWICH</t>
+  </si>
+  <si>
+    <t>CDLTAKURI</t>
+  </si>
+  <si>
+    <t>CDLTASUKIGAP</t>
+  </si>
+  <si>
+    <t>CDLTHRUSTING</t>
+  </si>
+  <si>
+    <t>CDLTRISTAR</t>
+  </si>
+  <si>
+    <t>CDLUNIQUE3RIVER</t>
+  </si>
+  <si>
+    <t>CDLUPSIDEGAP2CROWS</t>
+  </si>
+  <si>
+    <t>CDLXSIDEGAP3METHODS</t>
+  </si>
+  <si>
+    <t>(-100, 101)</t>
+  </si>
+  <si>
+    <t>(-100, 102)</t>
+  </si>
+  <si>
+    <t>(-100, 103)</t>
+  </si>
+  <si>
+    <t>(-100, 104)</t>
+  </si>
+  <si>
+    <t>(-100, 105)</t>
+  </si>
+  <si>
+    <t>(-100, 106)</t>
+  </si>
+  <si>
+    <t>(-100, 107)</t>
+  </si>
+  <si>
+    <t>(-100, 108)</t>
+  </si>
+  <si>
+    <t>3Down</t>
+  </si>
+  <si>
+    <t>3UP</t>
+  </si>
+  <si>
+    <t>4Down</t>
+  </si>
+  <si>
+    <t>3Up</t>
+  </si>
+  <si>
+    <t>3Revert</t>
+  </si>
+  <si>
+    <t>3Coming</t>
+  </si>
+  <si>
+    <t>2Up</t>
+  </si>
+  <si>
+    <t>5Up</t>
+  </si>
+  <si>
+    <t>1Continue</t>
+  </si>
+  <si>
+    <t>4Revert</t>
+  </si>
+  <si>
+    <t>2Revert</t>
+  </si>
+  <si>
+    <t>2Down</t>
+  </si>
+  <si>
+    <t>1Revert</t>
+  </si>
+  <si>
+    <t>2Coming</t>
+  </si>
+  <si>
+    <t>2Continue</t>
+  </si>
+  <si>
+    <t>3Continue</t>
+  </si>
+  <si>
+    <t>5Revert</t>
+  </si>
+  <si>
+    <t>1Coming</t>
+  </si>
+  <si>
+    <t>1Unsure</t>
+  </si>
+  <si>
+    <t>5Continue</t>
+  </si>
+  <si>
+    <t>1Down</t>
+  </si>
+  <si>
+    <t>3Unsure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT_DCPERIOD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT_DCPHASE </t>
+  </si>
+  <si>
+    <t>(0, 360)</t>
+  </si>
+  <si>
+    <t>Value/360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT_PHASOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT_SINE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HT_TRENDMODE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AD </t>
+  </si>
+  <si>
+    <t>(-1, 1)</t>
+  </si>
+  <si>
+    <t>ADOSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBV </t>
+  </si>
+  <si>
+    <t>Periods Position 2</t>
+  </si>
+  <si>
+    <t>9*9 image</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1281,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1070,6 +1380,15 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1392,13 +1711,13 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" style="1" width="10.50500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="1" width="10.38000011" customWidth="1" outlineLevel="0"/>
     <col min="2" max="3" style="1" width="17.37999916" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="1" width="10.38000011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="1" width="26.87999916" customWidth="1" outlineLevel="0"/>
@@ -1445,27 +1764,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="49.500000">
+    <row r="2" spans="1:12" ht="49.500000">
       <c r="A2" s="11" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="H2" s="10">
         <v>24</v>
@@ -1483,76 +1798,118 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="49.500000">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="15" t="s">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="33.000000">
+      <c r="A3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="10">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10">
+        <v>14</v>
+      </c>
+      <c r="J3" s="10">
+        <v>14</v>
+      </c>
+      <c r="K3" s="10">
+        <v>14</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="0" customFormat="1" ht="99.000000">
+      <c r="A4" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="0"/>
-    </row>
-    <row r="4" spans="1:12" s="16" customFormat="1" ht="33.000000">
-      <c r="A4" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10">
         <v>24</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:12" s="0" customFormat="1" ht="99.000000">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" ht="49.500000">
+      <c r="I4" s="10">
+        <v>14</v>
+      </c>
+      <c r="J4" s="10">
+        <v>14</v>
+      </c>
+      <c r="K4" s="10">
+        <v>14</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="49.500000">
+      <c r="A5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10">
+        <v>14</v>
+      </c>
+      <c r="J5" s="10">
+        <v>14</v>
+      </c>
+      <c r="K5" s="10">
+        <v>14</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33.000000">
       <c r="A6" s="11" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>52</v>
+        <v>122</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -1573,47 +1930,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10">
+        <v>48</v>
+      </c>
+      <c r="I7" s="10">
+        <v>28</v>
+      </c>
+      <c r="J7" s="10">
+        <v>28</v>
+      </c>
+      <c r="K7" s="10">
+        <v>28</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="10" customFormat="1" ht="66.000000">
       <c r="A8" s="11" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>53</v>
+        <v>136</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="11" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="H8" s="10">
         <v>24</v>
@@ -1631,26 +1996,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="10" customFormat="1" ht="66.000000">
+    <row r="9" spans="1:12" s="10" customFormat="1" ht="82.500000">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>58</v>
-      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="10">
         <v>24</v>
       </c>
@@ -1667,25 +2028,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="10" customFormat="1" ht="82.500000">
-      <c r="A10" s="11" t="s">
-        <v>67</v>
+    <row r="10" spans="1:12" ht="115.500000">
+      <c r="A10" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>30</v>
+        <v>119</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H10" s="10">
         <v>24</v>
@@ -1703,81 +2064,135 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="115.500000">
-      <c r="A11" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
+    <row r="11" spans="1:12" ht="49.500000">
+      <c r="A11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="10">
+        <v>24</v>
+      </c>
+      <c r="I11" s="10">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10">
+        <v>14</v>
+      </c>
+      <c r="K11" s="10">
+        <v>14</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="49.500000">
-      <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-    </row>
-    <row r="13" spans="1:12" ht="49.500000">
-      <c r="A13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-    </row>
-    <row r="14" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A12" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="10">
+        <v>24</v>
+      </c>
+      <c r="I12" s="10">
+        <v>14</v>
+      </c>
+      <c r="J12" s="10">
+        <v>14</v>
+      </c>
+      <c r="K12" s="10">
+        <v>14</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="10">
+        <v>24</v>
+      </c>
+      <c r="I13" s="10">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10">
+        <v>14</v>
+      </c>
+      <c r="K13" s="10">
+        <v>14</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="0" customFormat="1" ht="49.500000">
       <c r="A14" s="11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="29" t="s">
-        <v>83</v>
+      <c r="G14" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="10">
         <v>24</v>
@@ -1795,380 +2210,160 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="0" customFormat="1" ht="49.500000">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="15" t="s">
+    <row r="15" spans="1:12" ht="33.000000">
+      <c r="A15" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="0">
-        <v>24</v>
-      </c>
-      <c r="I15" s="0">
-        <v>14</v>
-      </c>
-      <c r="J15" s="0">
-        <v>14</v>
-      </c>
-      <c r="K15" s="0">
-        <v>14</v>
-      </c>
-      <c r="L15" s="0" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="10">
+        <v>12</v>
+      </c>
+      <c r="I15" s="10">
+        <v>7</v>
+      </c>
+      <c r="J15" s="10">
+        <v>7</v>
+      </c>
+      <c r="K15" s="10">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33.000000">
-      <c r="A16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="33.000000">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="33.000000">
-      <c r="A18" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="33.000000">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="82.500000">
-      <c r="A20" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="10">
-        <v>24</v>
-      </c>
-      <c r="I20" s="10">
-        <v>14</v>
-      </c>
-      <c r="J20" s="10">
-        <v>14</v>
-      </c>
-      <c r="K20" s="10">
-        <v>14</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1" ht="82.500000">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="49.500000">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="66.000000">
+      <c r="A20" s="35"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="49.500000">
-      <c r="A21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="66.000000">
-      <c r="A22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="49.500000">
-      <c r="A23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="66.000000">
-      <c r="A24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1" ht="33.000000">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="33.000000">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:12" s="10" customFormat="1" ht="33.000000">
-      <c r="A25" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10">
-        <v>24</v>
-      </c>
-      <c r="I25" s="10">
-        <v>14</v>
-      </c>
-      <c r="J25" s="10">
-        <v>14</v>
-      </c>
-      <c r="K25" s="10">
-        <v>14</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="33.000000">
-      <c r="A26" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10">
-        <v>24</v>
-      </c>
-      <c r="I26" s="10">
-        <v>14</v>
-      </c>
-      <c r="J26" s="10">
-        <v>14</v>
-      </c>
-      <c r="K26" s="10">
-        <v>14</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1" ht="56.250000">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:12" s="10" customFormat="1" ht="33.000000">
-      <c r="A27" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10">
-        <v>24</v>
-      </c>
-      <c r="I27" s="10">
-        <v>14</v>
-      </c>
-      <c r="J27" s="10">
-        <v>14</v>
-      </c>
-      <c r="K27" s="10">
-        <v>14</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="56.250000">
-      <c r="A28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="10">
-        <v>24</v>
-      </c>
-      <c r="I28" s="10">
-        <v>14</v>
-      </c>
-      <c r="J28" s="10">
-        <v>14</v>
-      </c>
-      <c r="K28" s="10">
-        <v>14</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="33.000000">
-      <c r="A29" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10">
-        <v>48</v>
-      </c>
-      <c r="I29" s="10">
-        <v>28</v>
-      </c>
-      <c r="J29" s="10">
-        <v>28</v>
-      </c>
-      <c r="K29" s="10">
-        <v>28</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="10" customFormat="1" ht="66.000000">
-      <c r="A30" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H30" s="10">
-        <v>12</v>
-      </c>
-      <c r="I30" s="10">
-        <v>7</v>
-      </c>
-      <c r="J30" s="10">
-        <v>7</v>
-      </c>
-      <c r="K30" s="10">
-        <v>7</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="10" customFormat="1" ht="82.500000">
-      <c r="A31" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="10">
-        <v>24</v>
-      </c>
-      <c r="I31" s="10">
-        <v>14</v>
-      </c>
-      <c r="J31" s="10">
-        <v>14</v>
-      </c>
-      <c r="K31" s="10">
-        <v>14</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1" ht="66.000000">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1" ht="82.500000">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L31">
+    <sortCondition ref="C2:C31"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2177,14 +2372,917 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="10.88000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="10.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="10.88000011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="33.000000">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="33" customFormat="1">
+      <c r="A3" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="33" customFormat="1">
+      <c r="A4" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="33" customFormat="1">
+      <c r="A5" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="33" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="33" customFormat="1">
+      <c r="A7" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="33" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="33" customFormat="1">
+      <c r="A9" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="33" customFormat="1">
+      <c r="A10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="33" customFormat="1">
+      <c r="A11" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="33" customFormat="1">
+      <c r="A12" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="33" customFormat="1">
+      <c r="A13" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="33" customFormat="1">
+      <c r="A14" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="33" customFormat="1">
+      <c r="A15" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="33" customFormat="1">
+      <c r="A16" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="33" customFormat="1">
+      <c r="A17" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="33" customFormat="1">
+      <c r="A18" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="33" customFormat="1">
+      <c r="A19" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="33" customFormat="1">
+      <c r="A20" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="33" customFormat="1">
+      <c r="A21" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="33" customFormat="1">
+      <c r="A22" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="33" customFormat="1">
+      <c r="A23" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="33" customFormat="1">
+      <c r="A24" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="33" customFormat="1">
+      <c r="A25" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="33" customFormat="1">
+      <c r="A26" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="33" customFormat="1">
+      <c r="A27" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="33" customFormat="1">
+      <c r="A28" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="33" customFormat="1">
+      <c r="A29" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="33" customFormat="1">
+      <c r="A30" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="33" customFormat="1">
+      <c r="A31" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="33" customFormat="1">
+      <c r="A32" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="33" customFormat="1">
+      <c r="A33" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="33" customFormat="1">
+      <c r="A34" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="33" customFormat="1">
+      <c r="A35" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="33" customFormat="1">
+      <c r="A36" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="33" customFormat="1">
+      <c r="A37" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="33" customFormat="1">
+      <c r="A38" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="33" customFormat="1">
+      <c r="A39" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="33" customFormat="1">
+      <c r="A40" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="33" customFormat="1">
+      <c r="A41" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="33" customFormat="1">
+      <c r="A42" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="33" customFormat="1">
+      <c r="A43" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="33" customFormat="1">
+      <c r="A44" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="33" customFormat="1">
+      <c r="A45" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="33" customFormat="1">
+      <c r="A46" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="33" customFormat="1">
+      <c r="A47" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="33" customFormat="1">
+      <c r="A48" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="33" customFormat="1">
+      <c r="A49" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="33" customFormat="1">
+      <c r="A50" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="33" customFormat="1">
+      <c r="A51" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="33" customFormat="1">
+      <c r="A52" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="33" customFormat="1">
+      <c r="A53" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="33" customFormat="1">
+      <c r="A54" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="33" customFormat="1">
+      <c r="A55" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="33" customFormat="1">
+      <c r="A56" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="33" customFormat="1">
+      <c r="A57" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="33" customFormat="1">
+      <c r="A58" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="33" customFormat="1">
+      <c r="A59" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="33" customFormat="1">
+      <c r="A60" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="33" customFormat="1">
+      <c r="A61" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="33" customFormat="1">
+      <c r="A62" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L62">
+    <sortCondition ref="C2:C62"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2193,14 +3291,128 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.62999916" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="33.000000">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="33" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="33" customFormat="1">
+      <c r="A3" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="33" customFormat="1">
+      <c r="A4" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="33" customFormat="1">
+      <c r="A5" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="33" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="0"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="0"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2209,42 +3421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2285,6 +3465,11 @@
     <row r="5" spans="1:7">
       <c r="A5" s="0" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TrendInd" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -749,6 +749,51 @@
   </si>
   <si>
     <t>9*9 image</t>
+  </si>
+  <si>
+    <t>CycleIndicator</t>
+  </si>
+  <si>
+    <t>Eye in the middle top</t>
+  </si>
+  <si>
+    <t>PatternInd</t>
+  </si>
+  <si>
+    <t>1-5:neck to tail</t>
+  </si>
+  <si>
+    <t>TrendInd</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Trend1:9</t>
+  </si>
+  <si>
+    <t>Cycle2:6</t>
+  </si>
+  <si>
+    <t>Trend10.0.1</t>
+  </si>
+  <si>
+    <t>Trend11-15</t>
+  </si>
+  <si>
+    <t>Pattern1-62</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>HT_DCPERIOD</t>
+  </si>
+  <si>
+    <t>PPO</t>
+  </si>
+  <si>
+    <t>Pattern1-17</t>
   </si>
 </sst>
 </file>
@@ -756,7 +801,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -902,6 +947,21 @@
       <sz val="9.0"/>
       <name val="Verdana"/>
       <color rgb="FF00007E"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF008080"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFCCC00"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1281,7 +1341,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1381,13 +1441,25 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1711,8 +1783,8 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2029,7 +2101,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="115.500000">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2253,7 +2325,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="33.000000">
+    <row r="17" spans="1:7" ht="33.000000">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="20"/>
@@ -2262,7 +2334,7 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:12" s="10" customFormat="1" ht="82.500000">
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="82.500000">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="18"/>
@@ -2270,13 +2342,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="49.500000">
+    </row>
+    <row r="19" spans="1:7" ht="49.500000">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="18"/>
@@ -2285,8 +2352,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="66.000000">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:7" ht="66.000000">
+      <c r="A20" s="34"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2294,7 +2361,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="49.500000">
+    <row r="21" spans="1:7" ht="49.500000">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2303,7 +2370,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="66.000000">
+    <row r="22" spans="1:7" ht="66.000000">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2312,16 +2379,15 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:12" s="10" customFormat="1" ht="33.000000">
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="33.000000">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="10"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:12" s="10" customFormat="1" ht="33.000000">
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="33.000000">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2329,34 +2395,34 @@
       <c r="E24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:12" s="10" customFormat="1" ht="33.000000">
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="33.000000">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:12" s="10" customFormat="1" ht="56.250000">
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="56.250000">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:12" s="10" customFormat="1" ht="33.000000">
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="33.000000">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:12" s="10" customFormat="1" ht="66.000000">
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="66.000000">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="82.500000">
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="82.500000">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
@@ -2375,8 +2441,8 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2425,857 +2491,857 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="33" customFormat="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1">
+      <c r="A2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="33" customFormat="1">
-      <c r="A3" s="33" t="s">
+      <c r="D2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="33" customFormat="1">
-      <c r="A4" s="33" t="s">
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="33" customFormat="1">
-      <c r="A5" s="33" t="s">
+      <c r="D4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="33" customFormat="1">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="33" customFormat="1">
-      <c r="A7" s="33" t="s">
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1">
+      <c r="A7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="33" customFormat="1">
-      <c r="A8" s="33" t="s">
+      <c r="D7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="10" customFormat="1">
+      <c r="A8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="33" customFormat="1">
-      <c r="A9" s="33" t="s">
+      <c r="D8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="10" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="33" customFormat="1">
-      <c r="A10" s="33" t="s">
+      <c r="D9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="10" customFormat="1">
+      <c r="A10" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="33" customFormat="1">
-      <c r="A11" s="33" t="s">
+      <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="10" customFormat="1">
+      <c r="A11" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="33" customFormat="1">
-      <c r="A12" s="33" t="s">
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1">
+      <c r="A12" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="33" customFormat="1">
-      <c r="A13" s="33" t="s">
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="10" customFormat="1">
+      <c r="A13" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="33" customFormat="1">
-      <c r="A14" s="33" t="s">
+      <c r="D13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="10" customFormat="1">
+      <c r="A14" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="33" customFormat="1">
-      <c r="A15" s="33" t="s">
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="10" customFormat="1">
+      <c r="A15" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="33" customFormat="1">
-      <c r="A16" s="33" t="s">
+      <c r="D15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="10" customFormat="1">
+      <c r="A16" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="33" customFormat="1">
-      <c r="A17" s="33" t="s">
+      <c r="D16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1">
+      <c r="A17" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="33" customFormat="1">
-      <c r="A18" s="33" t="s">
+      <c r="D17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="10" customFormat="1">
+      <c r="A18" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="33" customFormat="1">
-      <c r="A19" s="33" t="s">
+      <c r="D18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="10" customFormat="1">
+      <c r="A19" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="33" customFormat="1">
-      <c r="A20" s="33" t="s">
+      <c r="D19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="10" customFormat="1">
+      <c r="A20" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="33" customFormat="1">
-      <c r="A21" s="33" t="s">
+      <c r="D20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="10" customFormat="1">
+      <c r="A21" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="33" customFormat="1">
-      <c r="A22" s="33" t="s">
+      <c r="D21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="10" customFormat="1">
+      <c r="A22" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="33" customFormat="1">
-      <c r="A23" s="33" t="s">
+      <c r="D22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="10" customFormat="1">
+      <c r="A23" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="33" customFormat="1">
-      <c r="A24" s="33" t="s">
+      <c r="D23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1">
+      <c r="A24" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="33" customFormat="1">
-      <c r="A25" s="33" t="s">
+      <c r="D24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="10" customFormat="1">
+      <c r="A25" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="33" customFormat="1">
-      <c r="A26" s="33" t="s">
+      <c r="D25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="10" customFormat="1">
+      <c r="A26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="33" customFormat="1">
-      <c r="A27" s="33" t="s">
+      <c r="D26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="10" customFormat="1">
+      <c r="A27" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="33" customFormat="1">
-      <c r="A28" s="33" t="s">
+      <c r="D27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="10" customFormat="1">
+      <c r="A28" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="33" customFormat="1">
-      <c r="A29" s="33" t="s">
+      <c r="D28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="10" customFormat="1">
+      <c r="A29" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="33" customFormat="1">
-      <c r="A30" s="33" t="s">
+      <c r="D29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="10" customFormat="1">
+      <c r="A30" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="33" customFormat="1">
-      <c r="A31" s="33" t="s">
+      <c r="D30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="10" customFormat="1">
+      <c r="A31" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="33" customFormat="1">
-      <c r="A32" s="33" t="s">
+      <c r="D31" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="10" customFormat="1">
+      <c r="A32" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="33" customFormat="1">
-      <c r="A33" s="33" t="s">
+      <c r="D32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="10" customFormat="1">
+      <c r="A33" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D33" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="33" customFormat="1">
-      <c r="A34" s="33" t="s">
+      <c r="D33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="10" customFormat="1">
+      <c r="A34" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="33" customFormat="1">
-      <c r="A35" s="33" t="s">
+      <c r="D34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1">
+      <c r="A35" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C35" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="33" customFormat="1">
-      <c r="A36" s="33" t="s">
+      <c r="D35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1">
+      <c r="A36" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="33" t="s">
+      <c r="C36" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="33" customFormat="1">
-      <c r="A37" s="33" t="s">
+      <c r="D36" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1">
+      <c r="A37" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="33" customFormat="1">
-      <c r="A38" s="33" t="s">
+      <c r="D37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1">
+      <c r="A38" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="33" t="s">
+      <c r="C38" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D38" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" s="33" customFormat="1">
-      <c r="A39" s="33" t="s">
+      <c r="D38" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1">
+      <c r="A39" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L39" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="33" customFormat="1">
-      <c r="A40" s="33" t="s">
+      <c r="D39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1">
+      <c r="A40" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="33" t="s">
+      <c r="C40" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L40" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="33" customFormat="1">
-      <c r="A41" s="33" t="s">
+      <c r="D40" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="10" customFormat="1">
+      <c r="A41" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="33" customFormat="1">
-      <c r="A42" s="33" t="s">
+      <c r="D41" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="10" customFormat="1">
+      <c r="A42" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L42" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="33" customFormat="1">
-      <c r="A43" s="33" t="s">
+      <c r="D42" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="10" customFormat="1">
+      <c r="A43" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L43" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" s="33" customFormat="1">
-      <c r="A44" s="33" t="s">
+      <c r="D43" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="10" customFormat="1">
+      <c r="A44" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L44" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" s="33" customFormat="1">
-      <c r="A45" s="33" t="s">
+      <c r="D44" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="10" customFormat="1">
+      <c r="A45" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L45" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="33" customFormat="1">
-      <c r="A46" s="33" t="s">
+      <c r="D45" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="10" customFormat="1">
+      <c r="A46" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D46" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L46" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="33" customFormat="1">
-      <c r="A47" s="33" t="s">
+      <c r="D46" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="10" customFormat="1">
+      <c r="A47" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L47" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="33" customFormat="1">
-      <c r="A48" s="33" t="s">
+      <c r="D47" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="10" customFormat="1">
+      <c r="A48" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L48" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="33" customFormat="1">
-      <c r="A49" s="33" t="s">
+      <c r="D48" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="10" customFormat="1">
+      <c r="A49" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="33" customFormat="1">
-      <c r="A50" s="33" t="s">
+      <c r="D49" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="10" customFormat="1">
+      <c r="A50" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="33" customFormat="1">
-      <c r="A51" s="33" t="s">
+      <c r="D50" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="10" customFormat="1">
+      <c r="A51" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D51" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="33" customFormat="1">
-      <c r="A52" s="33" t="s">
+      <c r="D51" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="10" customFormat="1">
+      <c r="A52" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D52" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="33" customFormat="1">
-      <c r="A53" s="33" t="s">
+      <c r="D52" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="10" customFormat="1">
+      <c r="A53" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="33" t="s">
+      <c r="C53" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D53" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L53" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="33" customFormat="1">
-      <c r="A54" s="33" t="s">
+      <c r="D53" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="10" customFormat="1">
+      <c r="A54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D54" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L54" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="33" customFormat="1">
-      <c r="A55" s="33" t="s">
+      <c r="D54" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="10" customFormat="1">
+      <c r="A55" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L55" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="33" customFormat="1">
-      <c r="A56" s="33" t="s">
+      <c r="D55" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1">
+      <c r="A56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L56" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="33" customFormat="1">
-      <c r="A57" s="33" t="s">
+      <c r="D56" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="10" customFormat="1">
+      <c r="A57" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="33" t="s">
+      <c r="C57" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L57" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="33" customFormat="1">
-      <c r="A58" s="33" t="s">
+      <c r="D57" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="10" customFormat="1">
+      <c r="A58" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D58" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L58" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="33" customFormat="1">
-      <c r="A59" s="33" t="s">
+      <c r="D58" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="10" customFormat="1">
+      <c r="A59" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="33" t="s">
+      <c r="C59" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D59" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L59" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="33" customFormat="1">
-      <c r="A60" s="33" t="s">
+      <c r="D59" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1">
+      <c r="A60" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="33" t="s">
+      <c r="C60" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L60" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="33" customFormat="1">
-      <c r="A61" s="33" t="s">
+      <c r="D60" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1">
+      <c r="A61" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L61" s="33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="33" customFormat="1">
-      <c r="A62" s="33" t="s">
+      <c r="D61" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1">
+      <c r="A62" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D62" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="L62" s="33" t="s">
+      <c r="D62" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L62" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3294,7 +3360,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3340,69 +3406,58 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="33" customFormat="1">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:12" s="10" customFormat="1">
+      <c r="A2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="33" customFormat="1">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:12" s="10" customFormat="1">
+      <c r="A3" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="33" customFormat="1">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:12" s="10" customFormat="1">
+      <c r="A4" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="33" customFormat="1">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:12" s="10" customFormat="1">
+      <c r="A5" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="10" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="33" customFormat="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:12" s="10" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="L6" s="10" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3421,15 +3476,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="G4" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="8" max="8" width="21.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" width="22.50499916" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" width="19.37999916" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" width="24.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="12" width="19.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="13" width="13.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" width="18.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="15" width="22.50499916" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:16">
       <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
@@ -3440,7 +3505,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:16">
       <c r="A2" s="23" t="s">
         <v>64</v>
       </c>
@@ -3451,7 +3516,7 @@
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
     </row>
-    <row r="3" spans="1:7" s="26" customFormat="1">
+    <row r="3" spans="1:16" s="26" customFormat="1">
       <c r="A3" s="23" t="s">
         <v>66</v>
       </c>
@@ -3462,14 +3527,228 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:16">
       <c r="A5" s="0" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H5" s="0">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0">
+        <v>2</v>
+      </c>
+      <c r="J5" s="0">
+        <v>3</v>
+      </c>
+      <c r="K5" s="0">
+        <v>4</v>
+      </c>
+      <c r="L5" s="0">
+        <v>5</v>
+      </c>
+      <c r="M5" s="0">
+        <v>6</v>
+      </c>
+      <c r="N5" s="0">
+        <v>7</v>
+      </c>
+      <c r="O5" s="0">
+        <v>8</v>
+      </c>
+      <c r="P5" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="G6" s="0">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="0" t="s">
         <v>241</v>
+      </c>
+      <c r="G7" s="0">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="G8" s="0">
+        <v>3</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="0">
+        <v>4</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="0">
+        <v>5</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="0">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="G12" s="0">
+        <v>7</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="0">
+        <v>8</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="0">
+        <v>9</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="0" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="0" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="540" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TrendInd" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="258">
   <si>
     <t>Name</t>
   </si>
@@ -794,6 +794,9 @@
   </si>
   <si>
     <t>Pattern1-17</t>
+  </si>
+  <si>
+    <t>Pattern18-33</t>
   </si>
 </sst>
 </file>
@@ -801,7 +804,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -947,11 +950,6 @@
       <sz val="9.0"/>
       <name val="Verdana"/>
       <color rgb="FF00007E"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1341,7 +1339,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,19 +1445,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1783,7 +1775,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2441,8 +2433,8 @@
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3476,10 +3468,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A6" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3589,13 +3581,13 @@
       <c r="H7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="38" t="s">
+      <c r="K7" s="36" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3606,13 +3598,13 @@
       <c r="H8" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="35" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3629,13 +3621,13 @@
       <c r="H9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="35" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3652,13 +3644,13 @@
       <c r="H10" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="K10" s="10" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3675,13 +3667,13 @@
       <c r="H11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3692,13 +3684,13 @@
       <c r="H12" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="37" t="s">
+      <c r="I12" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="K12" s="37" t="s">
+      <c r="K12" s="8" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3709,13 +3701,13 @@
       <c r="G13" s="0">
         <v>8</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="35" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3726,13 +3718,13 @@
       <c r="G14" s="0">
         <v>9</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="J14" s="39" t="s">
+      <c r="J14" s="37" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3749,6 +3741,11 @@
     <row r="17" spans="1:1">
       <c r="A17" s="0" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TrendInd" sheetId="1" r:id="rId1"/>
@@ -2432,9 +2432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3470,7 +3470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/data/indicators.xlsx
+++ b/data/indicators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="530" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TrendInd" sheetId="1" r:id="rId1"/>
@@ -1774,9 +1774,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A2" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B2" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -2432,9 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3352,7 +3353,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
